--- a/IBK/excel/RA_MID_0730.xlsx
+++ b/IBK/excel/RA_MID_0730.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="146">
   <si>
     <t>file_name</t>
   </si>
@@ -443,6 +443,18 @@
   </si>
   <si>
     <t>2018.05.30</t>
+  </si>
+  <si>
+    <t>2.50%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.00%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.70%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1040,7 +1052,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1388,7 +1400,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J26" sqref="J26:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1460,8 +1472,8 @@
       <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="1">
-        <v>2.5000000000000001E-2</v>
+      <c r="J2" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="K2" t="s">
         <v>19</v>
@@ -1495,8 +1507,8 @@
       <c r="I3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="1">
-        <v>0.02</v>
+      <c r="J3" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="K3" t="s">
         <v>28</v>
@@ -1530,8 +1542,8 @@
       <c r="I4" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="1">
-        <v>0.02</v>
+      <c r="J4" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="K4" t="s">
         <v>35</v>
@@ -1565,8 +1577,8 @@
       <c r="I5" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="1">
-        <v>0.02</v>
+      <c r="J5" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="K5" t="s">
         <v>35</v>
@@ -1600,8 +1612,8 @@
       <c r="I6" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="1">
-        <v>1.7000000000000001E-2</v>
+      <c r="J6" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="K6" t="s">
         <v>42</v>
@@ -1635,8 +1647,8 @@
       <c r="I7" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="1">
-        <v>1.7000000000000001E-2</v>
+      <c r="J7" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="K7" t="s">
         <v>48</v>
@@ -1670,8 +1682,8 @@
       <c r="I8" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="1">
-        <v>0.02</v>
+      <c r="J8" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="K8" t="s">
         <v>54</v>
@@ -1705,8 +1717,8 @@
       <c r="I9" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="1">
-        <v>0.02</v>
+      <c r="J9" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="K9" t="s">
         <v>54</v>
@@ -1740,8 +1752,8 @@
       <c r="I10" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="1">
-        <v>1.7000000000000001E-2</v>
+      <c r="J10" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="K10" t="s">
         <v>61</v>
@@ -1775,8 +1787,8 @@
       <c r="I11" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="1">
-        <v>2.5000000000000001E-2</v>
+      <c r="J11" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="K11" t="s">
         <v>66</v>
@@ -1810,8 +1822,8 @@
       <c r="I12" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="1">
-        <v>0.02</v>
+      <c r="J12" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="K12" t="s">
         <v>72</v>
@@ -1845,8 +1857,8 @@
       <c r="I13" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="1">
-        <v>0.02</v>
+      <c r="J13" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="K13" t="s">
         <v>75</v>
@@ -1880,8 +1892,8 @@
       <c r="I14" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="1">
-        <v>0.02</v>
+      <c r="J14" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="K14" t="s">
         <v>72</v>
@@ -1915,8 +1927,8 @@
       <c r="I15" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="1">
-        <v>0.02</v>
+      <c r="J15" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="K15" t="s">
         <v>75</v>
@@ -1950,8 +1962,8 @@
       <c r="I16" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="1">
-        <v>0.02</v>
+      <c r="J16" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="K16" t="s">
         <v>84</v>
@@ -1985,8 +1997,8 @@
       <c r="I17" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="1">
-        <v>0.02</v>
+      <c r="J17" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="K17" t="s">
         <v>84</v>
@@ -2020,8 +2032,8 @@
       <c r="I18" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="1">
-        <v>1.7000000000000001E-2</v>
+      <c r="J18" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="K18" t="s">
         <v>28</v>
@@ -2055,8 +2067,8 @@
       <c r="I19" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="1">
-        <v>1.7000000000000001E-2</v>
+      <c r="J19" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="K19" t="s">
         <v>28</v>
@@ -2090,8 +2102,8 @@
       <c r="I20" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="1">
-        <v>1.7000000000000001E-2</v>
+      <c r="J20" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="K20" t="s">
         <v>96</v>
@@ -2125,8 +2137,8 @@
       <c r="I21" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="1">
-        <v>1.7000000000000001E-2</v>
+      <c r="J21" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="K21" t="s">
         <v>100</v>
@@ -2160,8 +2172,8 @@
       <c r="I22" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="1">
-        <v>2.5000000000000001E-2</v>
+      <c r="J22" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="K22" t="s">
         <v>106</v>
@@ -2195,8 +2207,8 @@
       <c r="I23" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="1">
-        <v>2.5000000000000001E-2</v>
+      <c r="J23" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="K23" t="s">
         <v>111</v>
@@ -2230,8 +2242,8 @@
       <c r="I24" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="1">
-        <v>2.5000000000000001E-2</v>
+      <c r="J24" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="K24" t="s">
         <v>116</v>
@@ -2265,8 +2277,8 @@
       <c r="I25" t="s">
         <v>27</v>
       </c>
-      <c r="J25" s="1">
-        <v>2.5000000000000001E-2</v>
+      <c r="J25" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="K25" t="s">
         <v>121</v>
@@ -2300,8 +2312,8 @@
       <c r="I26" t="s">
         <v>27</v>
       </c>
-      <c r="J26" s="1">
-        <v>1.7000000000000001E-2</v>
+      <c r="J26" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="K26" t="s">
         <v>126</v>
@@ -2335,8 +2347,8 @@
       <c r="I27" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="1">
-        <v>1.7000000000000001E-2</v>
+      <c r="J27" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="K27" t="s">
         <v>131</v>
@@ -2370,8 +2382,8 @@
       <c r="I28" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="1">
-        <v>1.7000000000000001E-2</v>
+      <c r="J28" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="K28" t="s">
         <v>137</v>
@@ -2405,8 +2417,8 @@
       <c r="I29" t="s">
         <v>27</v>
       </c>
-      <c r="J29" s="1">
-        <v>1.7000000000000001E-2</v>
+      <c r="J29" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="K29" t="s">
         <v>142</v>
@@ -2415,5 +2427,6 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>